--- a/project/src/assets/test.xlsx
+++ b/project/src/assets/test.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3088\OneDrive\바탕 화면\　\코딩\My\프로젝트\Excel_To_Web\project\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3088\OneDrive\바탕 화면\　\코딩\My\프로젝트\Create_Room_Card_From_Excel\project\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432E93ED-CEC9-4544-A733-8116C71AF2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8980172-5770-4791-94BE-185C8177E13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9110" yWindow="0" windowWidth="9120" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18450" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="형제" sheetId="1" r:id="rId1"/>
+    <sheet name="자매" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
   <si>
     <t>상주시민교회</t>
   </si>
@@ -178,6 +179,27 @@
   <si>
     <t>personnel3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산벧엘교회</t>
+  </si>
+  <si>
+    <t>꿈터교회</t>
+  </si>
+  <si>
+    <t>광주성광교회</t>
+  </si>
+  <si>
+    <t>고흥제일교회</t>
+  </si>
+  <si>
+    <t>광양새소망교회</t>
+  </si>
+  <si>
+    <t>조종교회</t>
+  </si>
+  <si>
+    <t>평안교회</t>
   </si>
 </sst>
 </file>
@@ -208,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +240,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,6 +298,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,18 +585,18 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -1203,4 +1234,649 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DD919D-6F1B-4AA8-95A6-5D0CAC9FA47F}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>601</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>602</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>603</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>604</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>605</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>606</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>607</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>608</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>609</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>610</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>611</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>612</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>613</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="6">
+        <v>614</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
+        <v>615</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>616</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>617</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>618</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>619</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>620</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
+        <v>621</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>622</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>623</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>624</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>625</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>626</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>627</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>628</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>629</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>630</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>631</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="3">
+        <v>632</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>633</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>634</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>635</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>636</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>637</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>